--- a/调用资料/pystudy.xlsx
+++ b/调用资料/pystudy.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyNote\调用资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonStudy_Git\调用资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F481A-EA87-4675-9B3D-CA375BAB09E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002869C9-756B-4986-A1DD-B0455B3A91D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="990" windowWidth="19740" windowHeight="14355" xr2:uid="{AC7E9008-9A35-4319-AC7A-327ED70E26E9}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{AC7E9008-9A35-4319-AC7A-327ED70E26E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="杨老师教学大纲" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -521,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C719AA-DEDF-42F0-BCE9-216999A7899C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
